--- a/PMUK_EMIFeeComm.xlsx
+++ b/PMUK_EMIFeeComm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamunur.shawon\PycharmProjects\testpro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{717FEF85-21A6-4D93-97A2-918F5216AD80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD96996-E7C4-4C64-82E1-D3DE3574B960}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="43">
   <si>
     <t>MerchantNumber</t>
   </si>
@@ -31,25 +31,124 @@
     <t>status_message</t>
   </si>
   <si>
-    <t>Padakhep Mohmmadpur Mohila | 713379389</t>
-  </si>
-  <si>
-    <t>Fee-com Registered</t>
-  </si>
-  <si>
-    <t>Padakhep Askona | 730793043</t>
-  </si>
-  <si>
-    <t>Padakhep Basabo | 730793030</t>
-  </si>
-  <si>
-    <t>Padakhep Shanirakhra | 730793034</t>
-  </si>
-  <si>
-    <t>Padakhep Badda | 730793039</t>
-  </si>
-  <si>
-    <t>Padakhep Keranigonj | 730793047</t>
+    <t>Padakhep Manabik Unnayan Kendra-Parsuram|713379293</t>
+  </si>
+  <si>
+    <t>Fee-Comm Registered</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Feni|713379291</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Shietakunda|713379326</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Gouranadi|713379399</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Bankerhut|777791643</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-C.O Bazar|730026913</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Thakurgaon|713379366</t>
+  </si>
+  <si>
+    <t>Padakhep Rajibpur Branch|313427010</t>
+  </si>
+  <si>
+    <t>Padakhep Chauddagram Branch|777791316</t>
+  </si>
+  <si>
+    <t>Padakhep Ukhia Branch|322838642</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Gazipur-DZ|730793056</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Halishahar|730026311</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Kaharol|713379307</t>
+  </si>
+  <si>
+    <t>Padakhep Bajitpur Branch|313426923</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Karnafuly|313426956</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Tungipara|713379337</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Rangpur|713379377</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Nilphamari|713379379</t>
+  </si>
+  <si>
+    <t>Padakhep Dumki Branch|322838694</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Badda|730793039</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Chandgaon|709334286</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Bandartila|730024559</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Digheenala|713379225</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Manikchari|730027292</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Shilok|713379323</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Kaptai|713488896</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Bhatiary|777791464</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Dulahajara|730027282</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Lohagara|730027286</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Boalkhali|713379327</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Shekherkhil|730024587</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Gajaria|730027025</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Keshabpur|713379271</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Bagha|777791699</t>
+  </si>
+  <si>
+    <t>Padakhep Manabik Unnayan Kendra-Kobirajhat|730026298</t>
+  </si>
+  <si>
+    <t>Padakhep Kotwali Branch|729065197</t>
+  </si>
+  <si>
+    <t>Padakhep Santinagar Branch|322838690</t>
+  </si>
+  <si>
+    <t>Padakhep Gunagari Branch|313426883</t>
+  </si>
+  <si>
+    <t>Padakhep Nirala Branch|313426842</t>
   </si>
 </sst>
 </file>
@@ -412,17 +511,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -438,7 +537,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1713379389</v>
+        <v>1713379293</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -449,7 +548,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1730793043</v>
+        <v>1713379291</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -460,7 +559,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1730793030</v>
+        <v>1713379326</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -471,7 +570,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1730793034</v>
+        <v>1713379399</v>
       </c>
       <c r="B5" t="s">
         <v>7</v>
@@ -482,7 +581,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>1730793039</v>
+        <v>1777791643</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -493,12 +592,375 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>1730793047</v>
+        <v>1730026913</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
       <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1713379366</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1313427010</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1777791316</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1322838642</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1730793056</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1730026311</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1713379307</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1313426923</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1313426956</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1713379337</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1713379377</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1713379379</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1322838694</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1730793039</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1709334286</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1730024559</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1713379225</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1730027292</v>
+      </c>
+      <c r="B25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1713379323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1713488896</v>
+      </c>
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1777791464</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1730027282</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1730027286</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1713379327</v>
+      </c>
+      <c r="B31" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1730024587</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1730027025</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1713379271</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1777791699</v>
+      </c>
+      <c r="B35" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1730026298</v>
+      </c>
+      <c r="B36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1729065197</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1322838690</v>
+      </c>
+      <c r="B38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1313426883</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1313426842</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" t="s">
         <v>4</v>
       </c>
     </row>
